--- a/medicine/Psychotrope/Seau_à_glace/Seau_à_glace.xlsx
+++ b/medicine/Psychotrope/Seau_à_glace/Seau_à_glace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seau_%C3%A0_glace</t>
+          <t>Seau_à_glace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un seau à glace ou à rafraîchir, encore appelé rafraîchissoir ou vase à rafraîchir, est un seau (ou plus anciennement un vase ou un meuble) que l'on remplit de glace pilée ou de glaçons, et dans lequel on plonge une ou plusieurs bouteilles contenant une boisson à consommer fraîche ou frappée, afin de la refroidir puis de la maintenir à une température suffisamment basse avant et pendant qu'elle est servie. Les verres peuvent également y être plongés avant d'être utilisés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seau_%C3%A0_glace</t>
+          <t>Seau_à_glace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la Grèce antique, on utilisait un dispositif similaire, appelé psykter : il s'agit d'un vase en céramique que l'on remplissait de vin, et que l'on plongeait dans un récipient plus large, tel qu'un cratère, contenant la glace, ou vice-versa.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seau_%C3%A0_glace</t>
+          <t>Seau_à_glace</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les seaux à glace sont particulièrement utilisés pour rafraîchir des boissons alcoolisées, en particulier les vins et notamment le Champagne, auquel cas ils portent respectivement les noms de seau à vin et seau à Champagne.
 Les seaux à glace peuvent constituer un support publicitaire pour les marques de boissons.
